--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -544,7 +544,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
